--- a/repswitch_V2L1.xlsx
+++ b/repswitch_V2L1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873C723-8B03-4562-8ECB-CE175DFB52C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E29096-3F91-4C8F-A09C-5DB9265E5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="142">
   <si>
     <t>image</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Extra6</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>fresa</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1008,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <charset val="161"/>
@@ -1018,6 +1017,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1046,7 +1052,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6063FF16-97D8-42A3-A80C-F2A4E1F0D139}" name="Table22" displayName="Table22" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6063FF16-97D8-42A3-A80C-F2A4E1F0D139}" name="Table22" displayName="Table22" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:Q409" xr:uid="{6063FF16-97D8-42A3-A80C-F2A4E1F0D139}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{21E39833-D4B0-4E9B-8C90-AB5630B30EB5}" name="image" dataDxfId="16"/>
@@ -1361,10 +1367,13 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q409"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -1678,10 +1687,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1731,10 +1740,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -2920,10 +2929,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -7254,10 +7263,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -7307,10 +7316,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>4</v>
@@ -8700,10 +8709,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>4</v>
@@ -12873,10 +12882,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -12926,10 +12935,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -14164,10 +14173,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -17886,10 +17895,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>4</v>
@@ -17939,10 +17948,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -19181,10 +19190,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>

--- a/repswitch_V2L1.xlsx
+++ b/repswitch_V2L1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E29096-3F91-4C8F-A09C-5DB9265E5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725FF31-4EA4-4FB1-BF03-3A4E3F07CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_V2L1.xlsx
+++ b/repswitch_V2L1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725FF31-4EA4-4FB1-BF03-3A4E3F07CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94AC15-E8D5-42C0-A617-C4B8076F572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>columna</t>
   </si>
   <si>
-    <t>trial</t>
-  </si>
-  <si>
     <t>psychopy_trial</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>fresa</t>
+  </si>
+  <si>
+    <t>trial_no</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
     <tableColumn id="9" xr3:uid="{ECE271CB-13DA-4768-B6EA-D12CB4160988}" name="stimulus" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{4E9B77FC-D825-4A28-96B2-754CB71165B2}" name="baseline" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{6ADE838A-DB66-44D3-8A32-550FB138A5CD}" name="baseline_condition" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{65612480-3FB3-494B-A615-F4937934B316}" name="trial" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{65612480-3FB3-494B-A615-F4937934B316}" name="trial_no" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{1030F95B-62BA-4E8F-9F26-858E79C665D5}" name="psychopy_trial" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{FFEB687C-A65A-4A6B-8C8B-542F1E2D2C6B}" name="Column1" dataDxfId="0"/>
   </tableColumns>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,36 +1401,36 @@
         <v>40</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="Q1" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" s="10">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>115</v>
@@ -1514,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>116</v>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>117</v>
@@ -4200,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>118</v>
@@ -4926,7 +4926,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>119</v>
@@ -6319,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>119</v>
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M104" s="10">
         <v>0</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>118</v>
@@ -7037,7 +7037,7 @@
         <v>2</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M110" s="7">
         <v>0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>4</v>
@@ -8709,10 +8709,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>4</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>116</v>
@@ -9307,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M154" s="20">
         <v>0</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>115</v>
@@ -9668,7 +9668,7 @@
         <v>2</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M161" s="7">
         <v>0</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>117</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M174" s="7">
         <v>0</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>114</v>
@@ -11885,7 +11885,7 @@
         <v>2</v>
       </c>
       <c r="L204" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M204" s="7">
         <v>0</v>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B206" s="16" t="s">
         <v>117</v>
@@ -11987,7 +11987,7 @@
         <v>2</v>
       </c>
       <c r="L206" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M206" s="10">
         <v>0</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>114</v>
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M207" s="10">
         <v>0</v>
@@ -12882,10 +12882,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -14173,10 +14173,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -16806,7 +16806,7 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B300" s="16" t="s">
         <v>118</v>
@@ -16839,7 +16839,7 @@
         <v>2</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M300" s="7">
         <v>0</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B302" s="16" t="s">
         <v>119</v>
@@ -16943,7 +16943,7 @@
         <v>2</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M302" s="7">
         <v>0</v>
@@ -17118,7 +17118,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B306" s="16" t="s">
         <v>115</v>
@@ -17151,7 +17151,7 @@
         <v>2</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M306" s="7">
         <v>0</v>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B307" s="19" t="s">
         <v>116</v>
@@ -17202,7 +17202,7 @@
         <v>2</v>
       </c>
       <c r="L307" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M307" s="20">
         <v>0</v>
@@ -17895,10 +17895,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>4</v>
@@ -17948,10 +17948,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -18827,7 +18827,7 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B339" s="16" t="s">
         <v>118</v>
@@ -18860,7 +18860,7 @@
         <v>2</v>
       </c>
       <c r="L339" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M339" s="7">
         <v>0</v>
@@ -19190,10 +19190,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B354" s="16" t="s">
         <v>117</v>
@@ -19635,7 +19635,7 @@
         <v>2</v>
       </c>
       <c r="L354" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M354" s="7">
         <v>0</v>
@@ -19808,7 +19808,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>119</v>
@@ -19841,7 +19841,7 @@
         <v>2</v>
       </c>
       <c r="L358" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M358" s="3">
         <v>0</v>
@@ -21152,7 +21152,7 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B384" s="16" t="s">
         <v>114</v>
@@ -21185,7 +21185,7 @@
         <v>2</v>
       </c>
       <c r="L384" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M384" s="7">
         <v>0</v>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B398" s="16" t="s">
         <v>115</v>
@@ -21907,7 +21907,7 @@
         <v>2</v>
       </c>
       <c r="L398" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M398" s="7">
         <v>0</v>
@@ -22288,7 +22288,7 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B406" s="16" t="s">
         <v>116</v>
@@ -22321,7 +22321,7 @@
         <v>2</v>
       </c>
       <c r="L406" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M406" s="7">
         <v>0</v>
